--- a/data/trans_bre/P35-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P35-Clase-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>-1.453928549190764</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>-7.372843637114185</v>
+        <v>-7.372843637114173</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>-0.06558479357988953</v>
@@ -649,7 +649,7 @@
         <v>-0.04750143775258774</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>-0.2067700430271363</v>
+        <v>-0.206770043027136</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-6.519461399718248</v>
+        <v>-6.468820856326536</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-5.193277466262244</v>
+        <v>-4.601413450323552</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-8.24890236510833</v>
+        <v>-8.477035000387158</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-12.85190591257559</v>
+        <v>-12.74402842878648</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.3250036356186874</v>
+        <v>-0.3160666471990505</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.1855830741561157</v>
+        <v>-0.1585401752705489</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.2506145574844953</v>
+        <v>-0.2528095174942515</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.3393177660853904</v>
+        <v>-0.3282344035212679</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.923386295454932</v>
+        <v>4.638340123862532</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>9.044500128408135</v>
+        <v>8.769859835554845</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5.295311280020424</v>
+        <v>5.252879767141882</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-2.219051936216544</v>
+        <v>-1.806728345112723</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.3457382244462609</v>
+        <v>0.3228615976329295</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3928645295030193</v>
+        <v>0.397399466498021</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1921466126645913</v>
+        <v>0.1951663607239195</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>-0.06760987667745955</v>
+        <v>-0.05876104481995176</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>2.704655973268538</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>-1.501838579733378</v>
+        <v>-1.501838579733361</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.2389250401286034</v>
@@ -749,7 +749,7 @@
         <v>0.09656816497278274</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>-0.0383500051112269</v>
+        <v>-0.03835000511122648</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-10.15384560539391</v>
+        <v>-10.75555945557829</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-2.678011432778131</v>
+        <v>-2.488179866530705</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-4.11556485360637</v>
+        <v>-3.995507188600659</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-7.797122054418256</v>
+        <v>-7.244749516360008</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.4476643721275726</v>
+        <v>-0.4627606099847066</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.09142170863255114</v>
+        <v>-0.08620696883495205</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.1373361847409351</v>
+        <v>-0.1279227872503782</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.1822774277954979</v>
+        <v>-0.170183837471874</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.9652550518918014</v>
+        <v>0.9432238352489895</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>11.6848211044469</v>
+        <v>11.32564298656274</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>9.79246822680847</v>
+        <v>9.118326313650522</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>4.734878970693948</v>
+        <v>4.360849667195805</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.06601275483667329</v>
+        <v>0.07003042447147861</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.5130511753292114</v>
+        <v>0.4929461065898578</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.397993435759243</v>
+        <v>0.3728347166801503</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.13000565448898</v>
+        <v>0.1235007060559836</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>4.348858645403475</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>2.793866304087439</v>
+        <v>2.79386630408745</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.007700314996570087</v>
@@ -849,7 +849,7 @@
         <v>0.1357668107364616</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.07249967662321441</v>
+        <v>0.07249967662321471</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-6.554831209397181</v>
+        <v>-6.872644106237161</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.07719157764935167</v>
+        <v>-0.3243042861370782</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-4.381370353277211</v>
+        <v>-4.048473841193887</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-5.078811257921538</v>
+        <v>-4.072949467902837</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.3076221565716588</v>
+        <v>-0.3108673510975656</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.00149217585152464</v>
+        <v>-0.01534428394723768</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.1325637585535172</v>
+        <v>-0.11994250011678</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.1225137130394433</v>
+        <v>-0.1035125836406934</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>7.799661353073463</v>
+        <v>8.228276648399881</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>14.5397174985607</v>
+        <v>15.08805012018714</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>13.39871931800952</v>
+        <v>14.65346353704379</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>9.618637369458117</v>
+        <v>10.6268225936149</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.4031301171747056</v>
+        <v>0.4355917224619382</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.5534622367032841</v>
+        <v>0.5669959009752908</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4408488629267455</v>
+        <v>0.4852798416620966</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.2671622977185746</v>
+        <v>0.2956385877502986</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-3.704868161193497</v>
+        <v>-3.559258408119652</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-1.701290246237893</v>
+        <v>-1.854683011452526</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-1.289491326231194</v>
+        <v>-1.361786917937433</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-7.435791717043918</v>
+        <v>-7.417592988134682</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.1712232727163409</v>
+        <v>-0.1679120687208606</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.05937812580134871</v>
+        <v>-0.06212595038709249</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.04081568727949635</v>
+        <v>-0.04553340885756943</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.1925704200880643</v>
+        <v>-0.191455774088251</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>4.066845685455281</v>
+        <v>3.727284431281423</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>7.491660116289967</v>
+        <v>6.890311154260662</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>7.29835287721768</v>
+        <v>7.355039492744401</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>1.373205936433926</v>
+        <v>0.6998282162766937</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.2182054293757935</v>
+        <v>0.2035233446209569</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2753629810801342</v>
+        <v>0.2584213079110158</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2748923233577398</v>
+        <v>0.2748523569067658</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.03997280544103746</v>
+        <v>0.01578243909609152</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>13.52682096565746</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>15.43868845493182</v>
+        <v>15.43868845493183</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5353562453167747</v>
@@ -1049,7 +1049,7 @@
         <v>0.4729655031636288</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.5120278504200948</v>
+        <v>0.5120278504200952</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>1.08570745053616</v>
+        <v>1.396160112293527</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>2.747269963482205</v>
+        <v>3.154989649112391</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>8.171042699302966</v>
+        <v>7.783753062509247</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>10.43528936194893</v>
+        <v>10.35472085436357</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.06297360186857184</v>
+        <v>0.09523165189176702</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.08949517846239817</v>
+        <v>0.1076109854464989</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2673279355954733</v>
+        <v>0.253294671813073</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.3131905635359591</v>
+        <v>0.3023301307400984</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>10.47889144199133</v>
+        <v>10.86207144861194</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>13.06433903673602</v>
+        <v>13.31500152623976</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>18.16328946981006</v>
+        <v>18.58811923921289</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>20.49448428070764</v>
+        <v>20.30139189535668</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1.127797549675192</v>
+        <v>1.220585904763677</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.5709289279906122</v>
+        <v>0.5765642456272255</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.7282126622704717</v>
+        <v>0.7244206848185578</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.7611251051360197</v>
+        <v>0.7638770825015443</v>
       </c>
     </row>
     <row r="19">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>17.10049757725091</v>
+        <v>17.44646296386472</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>28.66918279073424</v>
+        <v>28.67503950528031</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>20.37286480664999</v>
+        <v>20.59346029374899</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>11.37230195289346</v>
+        <v>11.73731908592758</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>1.846753503364566</v>
+        <v>1.794941125861185</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>3.061419897848415</v>
+        <v>2.943314649761327</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>1.528399632856484</v>
+        <v>1.492352906866548</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.3820969619548292</v>
+        <v>0.4030611279042415</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>24.97866938970244</v>
+        <v>25.36808987228319</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>37.21546655183667</v>
+        <v>37.50190979992802</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>29.24442644342178</v>
+        <v>29.88619304639045</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>28.35670332152213</v>
+        <v>28.86206802546947</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>6.591526021203687</v>
+        <v>6.562469609388045</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>9.97446476115338</v>
+        <v>10.03893121002594</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>4.291247738523878</v>
+        <v>4.21212018961675</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>1.88791756834215</v>
+        <v>2.084206649898236</v>
       </c>
     </row>
     <row r="22">
@@ -1237,7 +1237,7 @@
         <v>6.984586923432107</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>3.426677837859788</v>
+        <v>3.426677837859798</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2296982169956321</v>
@@ -1249,7 +1249,7 @@
         <v>0.2509681925767211</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.09835624102590236</v>
+        <v>0.09835624102590271</v>
       </c>
     </row>
     <row r="23">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>2.0762452493143</v>
+        <v>2.265544048752076</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>6.191477444186469</v>
+        <v>6.256652033968281</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>4.866968488661493</v>
+        <v>4.636711362010503</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1.326208587071342</v>
+        <v>1.238766933790357</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.1131569963875946</v>
+        <v>0.121045020692152</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2246551611486881</v>
+        <v>0.2312964453071722</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.171683709343174</v>
+        <v>0.1636104680417617</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.03704508608468363</v>
+        <v>0.03351085243914844</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>5.974166755602353</v>
+        <v>5.775064342336377</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>10.78269616804836</v>
+        <v>10.89864494103958</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>9.366863500770775</v>
+        <v>9.245291891152815</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>5.635396914941877</v>
+        <v>5.647519395568974</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.3593547507730493</v>
+        <v>0.3444494336172663</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.4332780567635857</v>
+        <v>0.4418349786696062</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3549112423814174</v>
+        <v>0.3506990999467163</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.1690435388594313</v>
+        <v>0.1674036838692464</v>
       </c>
     </row>
     <row r="25">
